--- a/assets/docs/Exa_8.1B.xlsx
+++ b/assets/docs/Exa_8.1B.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baa274beb3a24b9b/Documents/GitHub/Sanjaya/assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C8174-192C-45C9-AEE2-08FD77053DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E22C8174-192C-45C9-AEE2-08FD77053DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054004A4-A514-44C3-A680-9C67ED7C5079}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -520,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1512,32 +1510,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>